--- a/AutoClassificationDataInfo.xlsx
+++ b/AutoClassificationDataInfo.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Stats" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -109,13 +109,52 @@
   </si>
   <si>
     <t>Random Test Sets</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>1c/4e/add0109-0578.PMC4230407.pdf</t>
+  </si>
+  <si>
+    <t>69/3f/aids-29-1473.PMC4502989.pdf</t>
+  </si>
+  <si>
+    <t>a4/7e/agr018.PMC3080241.pdf</t>
+  </si>
+  <si>
+    <t>7e/d6/all0069-0817.PMC4279947.pdf</t>
+  </si>
+  <si>
+    <t>Classification Scores</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>f1-Score</t>
+  </si>
+  <si>
+    <t>Confusion Matrix</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>Train</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +169,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -163,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -172,13 +285,83 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="65"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -188,20 +371,232 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1910822</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217277</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1680000">
+          <a:off x="6292322" y="4790271"/>
+          <a:ext cx="4812030" cy="466616"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>210002</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7515677" y="5086350"/>
+          <a:ext cx="1190173" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143903" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="6124575"/>
+          <a:ext cx="1143903" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TARGET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> REGION</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RES"/>
+      <sheetName val="FUNCRES"/>
     </sheetNames>
     <definedNames>
       <definedName name="RandLotto"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A18:D31" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A18:D31"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Classification Scores" dataDxfId="5"/>
+    <tableColumn id="3" name="Precision" dataDxfId="4"/>
+    <tableColumn id="4" name="Recall" dataDxfId="3"/>
+    <tableColumn id="5" name="f1-Score" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:D15" totalsRowShown="0">
+  <autoFilter ref="A2:D15"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Category"/>
+    <tableColumn id="2" name="Docs"/>
+    <tableColumn id="3" name="Train" dataDxfId="1"/>
+    <tableColumn id="4" name="Test" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +890,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I32"/>
+      <selection activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +906,7 @@
         <v>0.75</v>
       </c>
       <c r="G1" s="1">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -550,11 +945,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <f>C3*$G$1</f>
-        <v>22</v>
-      </c>
-      <c r="I3" t="str">
+        <v>21.119999999999997</v>
+      </c>
+      <c r="I3" t="e">
         <f ca="1">[1]!RandLotto(1,C3,G3)</f>
-        <v>70 60 68 41 36 6 43 73 52 77 16 9 50 79 59 84 85 65 33 61 64 75</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -565,17 +960,17 @@
         <v>117</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E17" si="0">C4*$E$1</f>
+        <f t="shared" ref="E4:E13" si="0">C4*$E$1</f>
         <v>87.75</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <f t="shared" ref="G4:G13" si="1">C4*$G$1</f>
-        <v>29.25</v>
-      </c>
-      <c r="I4" t="str">
+        <v>28.08</v>
+      </c>
+      <c r="I4" t="e">
         <f ca="1">[1]!RandLotto(1,C4,G4)</f>
-        <v>69 117 95 76 63 91 37 15 13 94 8 102 53 101 103 19 42 99 71 97 9 18 10 25 44 112 109 111 31</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -592,11 +987,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="I5" t="str">
+        <v>10.08</v>
+      </c>
+      <c r="I5" t="e">
         <f ca="1">[1]!RandLotto(1,C5,G5)</f>
-        <v>13 31 30 26 8 40 1 18 28 23</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -613,11 +1008,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>13.25</v>
-      </c>
-      <c r="I6" t="str">
+        <v>12.719999999999999</v>
+      </c>
+      <c r="I6" t="e">
         <f ca="1">[1]!RandLotto(1,C6,G6)</f>
-        <v>48 40 22 19 10 33 23 13 43 34 47 5 45</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,11 +1029,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="I7" t="str">
+        <v>26.88</v>
+      </c>
+      <c r="I7" t="e">
         <f ca="1">[1]!RandLotto(1,C7,G7)</f>
-        <v>31 107 6 100 50 24 64 53 99 76 95 67 75 12 34 77 45 81 4 10 65 74 85 90 51 66 48 25</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -655,11 +1050,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="I8" t="str">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I8" t="e">
         <f ca="1">[1]!RandLotto(1,C8,G8)</f>
-        <v>22 10 7 30 23 9 18 15</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,11 +1071,11 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>106.5</v>
-      </c>
-      <c r="I9" t="str">
+        <v>102.24</v>
+      </c>
+      <c r="I9" t="e">
         <f ca="1">[1]!RandLotto(1,C9,G9)</f>
-        <v>170 177 15 23 217 370 381 426 48 34 77 333 68 138 131 53 18 332 154 215 122 251 352 43 220 216 241 98 383 359 82 172 259 331 25 362 342 279 60 101 164 234 57 199 223 185 318 247 109 271 415 92 357 39 49 418 398 203 59 235 341 110 374 102 30 380 230 137 419 363 97 280 313 159 255 158 179 32 133 187 50 214 183 360 219 253 301 200 210 112 386 372 17 336 20 123 24 233 195 83 270 412 202 107 252 240</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -697,11 +1092,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="I10" t="str">
+        <v>14.879999999999999</v>
+      </c>
+      <c r="I10" t="e">
         <f ca="1">[1]!RandLotto(1,C10,G10)</f>
-        <v>30 21 47 40 45 23 39 7 26 49 33 37 14 10 22 4</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -718,11 +1113,11 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="I11" t="str">
+        <v>32.64</v>
+      </c>
+      <c r="I11" t="e">
         <f ca="1">[1]!RandLotto(1,C11,G11)</f>
-        <v>2 45 104 98 81 17 54 49 134 121 128 109 101 69 115 74 10 43 34 135 72 89 90 117 85 21 56 132 73 47 48 7 8 126</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -739,11 +1134,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>685.25</v>
-      </c>
-      <c r="I12" t="str">
+        <v>657.84</v>
+      </c>
+      <c r="I12" t="e">
         <f ca="1">[1]!RandLotto(1,C12,G12)</f>
-        <v>2602 792 2735 1523 162 928 1538 1324 2379 743 2579 484 736 1178 1665 1409 2066 952 2081 2035 1430 1906 47 314 961 1331 1182 1760 2159 27 879 256 592 2356 380 938 344 2203 454 277 2245 1471 770 1948 1403 819 1333 2467 2699 375 1679 947 55 2441 203 72 441 2555 458 1969 2043 913 1822 1103 509 233 2125 2609 2208 1110 692 2664 1439 2311 1650 455 1213 387 327 718 138 830 946 951 1915 1190 1657 1735 12 546 2518 1659 2030 890 2530 2669 528 469 2378 930 2477 212 1373 311 2293 1342 533 1551 2312 284 447 1667 1199 259 196 2063 2140 909 1767 1059 1685 2054 2734 1378 1545 849 1678 895 188 1933 678 1834 1751 1568 968 693 1903 2006 2024 1503 575 1485 823 874 1648 1654 1957 1579 1429 1993 800 645 1029 1539 2622 1282 2591 1264 1955 665 1455 1311 1980 2600 1417 2521 1143 1560 144 2143 2280 631 1364 2608 1524 892 870 1766 473 2073 84 820 915 1882 147 2226 2261 868 2041 69 710 299 542 673 1715 2649 392 2256 1254 2552 53 2083 1880 1858 1591 653 383 2168 1736 2666 336 1811 540 215 571 637 1052 1637 979 2558 1495 2080 2631 373 1848 2232 610 1923 538 2619 1717 2033 525 1914 479 288 998 1764 1295 884 971 2061 2520 304 1316 492 359 342 1905 2021 1674 559 530 677 1748 897 490 354 2249 1826 2119 374 1079 456 2304 1536 1105 1891 503 2390 2560 243 289 742 2574 699 2059 960 1614 1255 2136 821 955 1189 2739 2343 936 156 932 2270 2737 2116 2584 1223 222 318 2013 498 1130 1985 2517 813 911 2217 2183 684 1802 389 1544 2147 534 2645 526 1807 83 1353 1253 1250 2724 130 2456 640 324 151 168 2315 1204 1144 1113 2443 39 1558 1677 1229 1621 1083 827 195 1530 1386 1096 2000 834 2137 1351 2674 2354 2218 369 1988 1157 2434 372 1986 1556 262 1141 2072 815 1733 260 2335 1313 1400 1166 2594 2385 1714 1622 411 1684 315 1075 1111 205 1895 65 1318 1666 1992 620 764 1999 1609 1812 1347 2426 420 1710 2205 1066 2017 865 2468 887 1147 2577 2383 738 1423 2097 594 1552 843 1480 2401 1017 547 714 1453 1120 2001 303 1257 119 1185 2164 2285 917 855 388 721 1104 280 1490 1022 62 2264 995 2002 1106 965 1794 2201 659 1150 78 712 691 1070 722 2575 877 14 2301 6 291 2703 2688 1842 13 106 376 176 2282 471 223 962 1652 360 1749 531 370 1841 1484 1315 1159 516 494 1782 2545 1501 1360 934 2052 1454 443 1976 1033 1210 2358 2660 364 769 2542 19 1099 1019 385 1635 1317 741 1557 1493 652 1885 2223 1823 974 2707 1918 2394 1703 2317 2406 685 539 2415 1865 491 2585 748 578 1245 2011 510 2668 1271 847 1448 2701 1928 521 983 1559 1486 269 1514 2292 580 1742 2191 2731 1907 2368 1644 1236 818 2485 2275 220 1179 235 2621 1038 2152 916 1732 1164 1411 2551 1507 2469 129 1460 2528 586 164 2541 2706 305 450 1415 566 2241 1419 1758 1713 1024 1281 1221 1705 2193 15 2209 1397 2127 382 1447 2700 86 1231 1699 429 2107 2014 1529 867 964 1389 1875 1872 2733 2185 355 2187 688 2676 133 1260 67 611 618 1345 2534 1473 2405 648 1069 2447 1252 779 2384 366 1516 1356 1321 1796 2524 3 2462 18 1207 1937 2345 1856 1640 878 556 285 1016 434 2200 1109 2171 1040 2299 608 788 1995 1646 2512 1327 1793 1688 2598 570 2361 1060 2540 1669 2227 1422 1746 1547 1224 1604 2504 225 2726 1853 43 2330 1405 2400 2087 1032 2350 139 2115 1004 1155 674 104 2099 757 1355 2407 1095 1900 85 2277 8 460 2698</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -760,11 +1155,11 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="I13" t="str">
+        <v>35.519999999999996</v>
+      </c>
+      <c r="I13" t="e">
         <f ca="1">[1]!RandLotto(1,C13,G13)</f>
-        <v>109 72 7 86 23 100 41 74 40 9 132 15 145 47 120 92 111 52 28 31 5 35 30 128 94 11 76 49 141 82 61 126 17 87 53 20 143</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -788,7 +1183,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5">
         <f>SUM(G3:G14)</f>
-        <v>988.75</v>
+        <v>949.2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,258 +1427,1315 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A18" sqref="A18:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="91.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E1" s="6">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="29">
         <v>0.75</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6">
+      <c r="D1" s="29">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>88</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C3" s="21">
         <v>66</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="D3" s="21">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="23">
         <v>117</v>
       </c>
-      <c r="E4" s="2">
+      <c r="C4" s="24">
         <v>87.75</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="D4" s="24">
         <v>29.25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>42</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C5" s="21">
         <v>31.5</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="D5" s="21">
         <v>10.5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="23">
         <v>53</v>
       </c>
-      <c r="E6" s="2">
+      <c r="C6" s="24">
         <v>39.75</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="D6" s="24">
         <v>13.25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>112</v>
       </c>
-      <c r="E7" s="2">
+      <c r="C7" s="21">
         <v>84</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="D7" s="21">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="23">
         <v>30</v>
       </c>
-      <c r="E8" s="2">
+      <c r="C8" s="24">
         <v>22.5</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="D8" s="24">
         <v>7.5</v>
       </c>
-      <c r="I8" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>426</v>
       </c>
-      <c r="E9" s="2">
+      <c r="C9" s="21">
         <v>319.5</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="D9" s="21">
         <v>106.5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="23">
         <v>62</v>
       </c>
-      <c r="E10" s="2">
+      <c r="C10" s="24">
         <v>46.5</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="D10" s="24">
         <v>15.5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>136</v>
       </c>
-      <c r="E11" s="2">
+      <c r="C11" s="21">
         <v>102</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="D11" s="21">
         <v>34</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="23">
         <v>2741</v>
       </c>
-      <c r="E12" s="2">
+      <c r="C12" s="24">
         <v>2055.75</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="D12" s="24">
         <v>685.25</v>
       </c>
-      <c r="I12" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>148</v>
       </c>
-      <c r="E13" s="2">
+      <c r="C13" s="21">
         <v>111</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="D13" s="21">
         <v>37</v>
       </c>
-      <c r="I13" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="4">
         <v>3955</v>
       </c>
-      <c r="E15" s="2">
+      <c r="C15" s="5">
         <v>2966.25</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="D15" s="5">
         <v>988.75</v>
       </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="1:20" ht="54.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="17">
+        <v>29</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>21</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>5</v>
+      </c>
+      <c r="I21" s="19">
+        <v>5</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>10</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0</v>
+      </c>
+      <c r="R22" s="10"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>27</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
+        <v>1</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
+        <v>106</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>10</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="19">
+        <v>9</v>
+      </c>
+      <c r="P27" s="12">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>2</v>
+      </c>
+      <c r="R27" s="10"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
+        <v>0</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
+        <v>685</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <v>2</v>
+      </c>
+      <c r="P29" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>30</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="20">
+        <f>AVERAGE(B19:B29)</f>
+        <v>0.84545454545454557</v>
+      </c>
+      <c r="C31" s="20">
+        <f>AVERAGE(C19:C29)</f>
+        <v>0.71545454545454534</v>
+      </c>
+      <c r="D31" s="20">
+        <f>AVERAGE(D19:D29)</f>
+        <v>0.75909090909090904</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
